--- a/data/223/SIDRA/old/Table 7060.xlsx
+++ b/data/223/SIDRA/old/Table 7060.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Tabela 7060 - IPCA - Variação mensal, acumulada no ano, acumulada em 12 meses e peso mensal, para o índice geral, grupos, subgrupos, itens e subitens de produtos e serviços (a partir de janeiro/2020)</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>outubro 2021</t>
+  </si>
+  <si>
+    <t>novembro 2021</t>
   </si>
   <si>
     <t>1.Alimentação e bebidas</t>
@@ -248,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -256,7 +259,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="23" width="10"/>
+    <col min="1" max="24" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -329,6 +332,9 @@
       <c r="W1" s="1">
         <v/>
       </c>
+      <c r="X1" s="1">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -400,6 +406,9 @@
       <c r="W2" s="2">
         <v/>
       </c>
+      <c r="X2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -471,6 +480,9 @@
       <c r="W3" s="2">
         <v/>
       </c>
+      <c r="X3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
@@ -542,6 +554,9 @@
       <c r="W4" s="2">
         <v/>
       </c>
+      <c r="X4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -613,43 +628,46 @@
       <c r="W5" t="s" s="2">
         <v>26</v>
       </c>
+      <c r="X5" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="4">
         <v>14.09</v>
@@ -684,43 +702,46 @@
       <c r="W6" s="4">
         <v>11.71</v>
       </c>
+      <c r="X6" s="4">
+        <v>8.90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M7" s="4">
         <v>5.25</v>
@@ -755,43 +776,46 @@
       <c r="W7" s="4">
         <v>14.77</v>
       </c>
+      <c r="X7" s="4">
+        <v>15.45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="4">
         <v>6.00</v>
@@ -826,43 +850,46 @@
       <c r="W8" s="4">
         <v>12.30</v>
       </c>
+      <c r="X8" s="4">
+        <v>12.49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="4">
         <v>-1.13</v>
@@ -897,43 +924,46 @@
       <c r="W9" s="4">
         <v>7.77</v>
       </c>
+      <c r="X9" s="4">
+        <v>8.72</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10" s="4">
         <v>1.03</v>
@@ -968,43 +998,46 @@
       <c r="W10" s="4">
         <v>19.59</v>
       </c>
+      <c r="X10" s="4">
+        <v>21.97</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M11" s="4">
         <v>1.50</v>
@@ -1039,43 +1072,46 @@
       <c r="W11" s="4">
         <v>3.80</v>
       </c>
+      <c r="X11" s="4">
+        <v>3.34</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12" s="4">
         <v>1.03</v>
@@ -1110,43 +1146,46 @@
       <c r="W12" s="4">
         <v>4.25</v>
       </c>
+      <c r="X12" s="4">
+        <v>4.82</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M13" s="4">
         <v>1.13</v>
@@ -1181,43 +1220,46 @@
       <c r="W13" s="4">
         <v>3.22</v>
       </c>
+      <c r="X13" s="4">
+        <v>3.26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14" s="4">
         <v>3.42</v>
@@ -1252,10 +1294,13 @@
       <c r="W14" s="4">
         <v>1.64</v>
       </c>
+      <c r="X14" s="4">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2">
         <v/>
@@ -1321,17 +1366,20 @@
         <v/>
       </c>
       <c r="W15" s="2">
+        <v/>
+      </c>
+      <c r="X15" s="2">
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:X3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="A15:W15"/>
+    <mergeCell ref="B4:X4"/>
+    <mergeCell ref="A15:X15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1352,17 +1400,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
